--- a/biology/Botanique/Elaeocarpus/Elaeocarpus.xlsx
+++ b/biology/Botanique/Elaeocarpus/Elaeocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaeocarpus est un genre d'arbres et d'arbustes tropicaux et subtropicaux à feuillage persistant. Environ 350 espèces sont présentes depuis Madagascar, à l'Ouest à travers l'Inde, dans le Sud-Est de l'Asie, la Malaisie, la Chine méridionale, Taïwan et le Japon, à travers l'Australie jusqu'en Nouvelle-Zélande, dans les Fidji, et Hawaii à l'Est. Les îles de Bornéo et de Nouvelle-Guinée ont la plus grande concentration d'espèces. 31 espèces sont également présentes en Nouvelle-Calédonie, dont 29 endémiques.
 Elaeocarpus ganitrus, l'arbre Rudraksha, produit des graines appelées Rudraksha qui sont traditionnellement considérées comme sacrées dans l'hindouisme.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elaeocarpus aberrans
 Elaeocarpus acrantherus
